--- a/generated_docs/WR_89709840_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89709840_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Bryant Murphy</t>
+          <t>BM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/25/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>846-1</t>
+          <t>#NO MATCH-3</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89709840_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89709840_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>412.36</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>412.36</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89709840_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89709840_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>412.36</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P14</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +805,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>0</v>
+        <v>412.36</v>
       </c>
     </row>
   </sheetData>
